--- a/Waste/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
+++ b/Waste/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
@@ -5151,49 +5151,49 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="U97">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="V97">
-        <v>0.008999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="W97">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="X97">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y97">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="Z97">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="AB97">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AD97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH97">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:34">
@@ -5255,49 +5255,49 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="U98">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="V98">
-        <v>0.008999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="W98">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="X98">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y98">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="Z98">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AD98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:34">
@@ -9123,31 +9123,31 @@
         <v>3.1476</v>
       </c>
       <c r="V68">
-        <v>3.3295</v>
+        <v>3.3296</v>
       </c>
       <c r="W68">
-        <v>3.5149</v>
+        <v>3.515</v>
       </c>
       <c r="X68">
         <v>3.7035</v>
       </c>
       <c r="Y68">
-        <v>3.8951</v>
+        <v>3.8952</v>
       </c>
       <c r="Z68">
-        <v>4.0897</v>
+        <v>4.0898</v>
       </c>
       <c r="AA68">
-        <v>4.2871</v>
+        <v>4.2873</v>
       </c>
       <c r="AB68">
-        <v>4.4876</v>
+        <v>4.4877</v>
       </c>
       <c r="AC68">
         <v>4.6907</v>
       </c>
       <c r="AD68">
-        <v>4.7822</v>
+        <v>4.7823</v>
       </c>
       <c r="AE68">
         <v>4.874</v>
@@ -10367,31 +10367,31 @@
         <v>3.1476</v>
       </c>
       <c r="V108">
-        <v>3.3295</v>
+        <v>3.3296</v>
       </c>
       <c r="W108">
-        <v>3.5149</v>
+        <v>3.515</v>
       </c>
       <c r="X108">
         <v>3.7035</v>
       </c>
       <c r="Y108">
-        <v>3.8951</v>
+        <v>3.8952</v>
       </c>
       <c r="Z108">
-        <v>4.0897</v>
+        <v>4.0898</v>
       </c>
       <c r="AA108">
-        <v>4.2871</v>
+        <v>4.2873</v>
       </c>
       <c r="AB108">
-        <v>4.4876</v>
+        <v>4.4877</v>
       </c>
       <c r="AC108">
         <v>4.6907</v>
       </c>
       <c r="AD108">
-        <v>4.7822</v>
+        <v>4.7823</v>
       </c>
       <c r="AE108">
         <v>4.874</v>
@@ -11128,13 +11128,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B6171C-367B-4228-9F52-5C613B302DCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48CCF7CB-EB63-4BD6-A1E2-89AA7F7C255E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E5D935E-EC7D-4FC9-B72E-AFAB68D2744C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F969A63-D6F8-43C0-B5CF-92536EA85EA6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9742F07F-BEBE-4303-8D2D-E77CC0CA03AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E89C78-EB3E-4E7C-A13B-853194C31569}"/>
 </file>